--- a/Light Version Pinout for UNO32 & WiFire.xlsx
+++ b/Light Version Pinout for UNO32 & WiFire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1300" windowWidth="32180" windowHeight="18200" tabRatio="500"/>
+    <workbookView xWindow="-100" yWindow="0" windowWidth="32180" windowHeight="18200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="227">
   <si>
     <t>CHIPKIT RAMPS MINI</t>
   </si>
@@ -474,19 +474,7 @@
     <t>Z Max Limit</t>
   </si>
   <si>
-    <t>X Min Limit</t>
-  </si>
-  <si>
-    <t>Y Min Limit</t>
-  </si>
-  <si>
-    <t>Z Min Limit</t>
-  </si>
-  <si>
     <t>Stepper Enable</t>
-  </si>
-  <si>
-    <t>Stepper Reset</t>
   </si>
   <si>
     <t>SDA</t>
@@ -568,9 +556,6 @@
     </r>
   </si>
   <si>
-    <t>NO PWM ON THIS FAN with UNO32</t>
-  </si>
-  <si>
     <t>Output compare for step generator</t>
   </si>
   <si>
@@ -589,48 +574,15 @@
     <t>Ramps mini HW</t>
   </si>
   <si>
-    <t>SCK</t>
-  </si>
-  <si>
-    <t>SDI</t>
-  </si>
-  <si>
-    <t>SDO</t>
-  </si>
-  <si>
-    <t>CS1</t>
-  </si>
-  <si>
-    <t>CS2</t>
-  </si>
-  <si>
-    <t>reset</t>
-  </si>
-  <si>
-    <t>Digipot interface for 2 MCP4351's</t>
-  </si>
-  <si>
     <t>4x A4983 Steppers</t>
   </si>
   <si>
-    <t>2x MCP4351 Digipots</t>
-  </si>
-  <si>
     <t>4x MCP87055 MOSFETs</t>
   </si>
   <si>
     <t>1x 24AA08 EEPROM</t>
   </si>
   <si>
-    <t>X FSR</t>
-  </si>
-  <si>
-    <t>Y FSR</t>
-  </si>
-  <si>
-    <t>Z FSR</t>
-  </si>
-  <si>
     <t>ADC inputs to Force Sensing Resistors</t>
   </si>
   <si>
@@ -640,9 +592,6 @@
     <t>2x Thermistor Inputs</t>
   </si>
   <si>
-    <t>6x Limit Inputs (5v drive)</t>
-  </si>
-  <si>
     <t>Servo 1</t>
   </si>
   <si>
@@ -652,36 +601,12 @@
     <t>2x Servo Inputs (5v power)</t>
   </si>
   <si>
-    <t>E-STOP BUTTON</t>
-  </si>
-  <si>
-    <t>1x E-Stop Button</t>
-  </si>
-  <si>
-    <t>Thermistor Spare</t>
-  </si>
-  <si>
-    <t>Limit Switch Spare</t>
-  </si>
-  <si>
-    <t>CS1 == MCP4351 #1</t>
-  </si>
-  <si>
-    <t>CS2 == MCP4351 #2</t>
-  </si>
-  <si>
     <t>Serial Bus Expansion RX</t>
   </si>
   <si>
     <t>Serial Bus Expansion TX</t>
   </si>
   <si>
-    <t>Can also be Analog input but there is a 5v supply</t>
-  </si>
-  <si>
-    <t>Can also be Digital Output with 3.3v supply</t>
-  </si>
-  <si>
     <t>Question… Should Limit switches have 5v supplies</t>
   </si>
   <si>
@@ -691,27 +616,9 @@
     <t>I2C has 3.3v pullup</t>
   </si>
   <si>
-    <t>3.3v "ttl" serial port</t>
-  </si>
-  <si>
-    <t>Digipots set current for Steppers</t>
-  </si>
-  <si>
-    <t>Used ONCE at startup</t>
-  </si>
-  <si>
-    <t>Digital Input with physical button and 2 pins for remote button</t>
-  </si>
-  <si>
     <t>3.3v GPIO</t>
   </si>
   <si>
-    <t>Enable for ALL stepper controllers</t>
-  </si>
-  <si>
-    <t>Reset for ALL stepper controllers</t>
-  </si>
-  <si>
     <t>Steppers are configured 16 micro steps</t>
   </si>
   <si>
@@ -736,9 +643,6 @@
     <t>Print Cooling Fan</t>
   </si>
   <si>
-    <t>Hot End Fan</t>
-  </si>
-  <si>
     <t>Thermistors are pulled up to 3.3v</t>
   </si>
   <si>
@@ -748,12 +652,6 @@
     <t>FSR's are pulled up to 3.3v</t>
   </si>
   <si>
-    <t>Digipots set the motor current</t>
-  </si>
-  <si>
-    <t>Digipots are set once at powerup so bit-banged SPI is OK.</t>
-  </si>
-  <si>
     <t>Serial EEPROM for configuration</t>
   </si>
   <si>
@@ -772,13 +670,94 @@
     <t>1x MCP16322 for 12-5v</t>
   </si>
   <si>
-    <t>1x MCP1701 for 5v-3v3</t>
-  </si>
-  <si>
     <t>1x MCP9800 near MOSFETS</t>
   </si>
   <si>
     <t>1x MCP9800 near Steppers</t>
+  </si>
+  <si>
+    <t>SPI SDI</t>
+  </si>
+  <si>
+    <t>SPI SDO</t>
+  </si>
+  <si>
+    <t>SPI SCK</t>
+  </si>
+  <si>
+    <t>X FSR/ X MIN Limit</t>
+  </si>
+  <si>
+    <t>Y FSR / Y MIN Limit</t>
+  </si>
+  <si>
+    <t>Z FSR / Z MIN Limit</t>
+  </si>
+  <si>
+    <t>X Touch Input</t>
+  </si>
+  <si>
+    <t>Y Touch Input</t>
+  </si>
+  <si>
+    <t>Resistive Touch Screen Input</t>
+  </si>
+  <si>
+    <t>Resisitive Touch Screen Input</t>
+  </si>
+  <si>
+    <t>Hot End Cooling Fan</t>
+  </si>
+  <si>
+    <t>SPI GPIO (EN Display)</t>
+  </si>
+  <si>
+    <t>SPI GPIO (D/C Display)</t>
+  </si>
+  <si>
+    <t>Vdd/4</t>
+  </si>
+  <si>
+    <t>Thermistor GAIN</t>
+  </si>
+  <si>
+    <t>SPI for LCD Display</t>
+  </si>
+  <si>
+    <t>Could be SPI controlled TFT with Touch</t>
+  </si>
+  <si>
+    <t>Or it could be Ultimachine 4 line display with buttons</t>
+  </si>
+  <si>
+    <t>Display Something</t>
+  </si>
+  <si>
+    <t>Display GPIO</t>
+  </si>
+  <si>
+    <t>Duplicate on Display Connector</t>
+  </si>
+  <si>
+    <t>3-pin &amp; Display Connector</t>
+  </si>
+  <si>
+    <t>User Button</t>
+  </si>
+  <si>
+    <t>3x Limit Inputs (5v drive)</t>
+  </si>
+  <si>
+    <t>4x channels I2C DAC's</t>
+  </si>
+  <si>
+    <t>1x MCP6L01 vdd/4 buffer</t>
+  </si>
+  <si>
+    <t>1x button input</t>
+  </si>
+  <si>
+    <t>DAC's Set motor current</t>
   </si>
 </sst>
 </file>
@@ -865,7 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,7 +982,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1024,13 +1003,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1379,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1426,11 +1409,11 @@
       <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>212</v>
+      <c r="K2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1449,11 +1432,11 @@
       <c r="E3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>211</v>
+      <c r="K3" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1472,11 +1455,11 @@
       <c r="E4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>213</v>
+      <c r="K4" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1498,11 +1481,11 @@
       <c r="F5" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>214</v>
+      <c r="K5" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1525,13 +1508,13 @@
         <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>215</v>
+        <v>159</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1554,13 +1537,13 @@
         <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K7" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>185</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1583,13 +1566,13 @@
         <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K8" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1612,13 +1595,13 @@
         <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>220</v>
+        <v>159</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1641,13 +1624,13 @@
         <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>221</v>
+        <v>179</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1670,13 +1653,13 @@
         <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>222</v>
+        <v>179</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1699,13 +1682,13 @@
         <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>223</v>
+        <v>159</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1725,17 +1708,15 @@
         <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="O13" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>224</v>
       </c>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3">
@@ -1747,23 +1728,23 @@
       <c r="C14">
         <v>70</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F14" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" t="s">
-        <v>163</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>225</v>
+      <c r="F14" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1776,23 +1757,23 @@
       <c r="C15">
         <v>85</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" t="s">
-        <v>209</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>226</v>
+      <c r="F15" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1805,19 +1786,19 @@
       <c r="C16">
         <v>10</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" t="s">
-        <v>210</v>
-      </c>
-      <c r="O16" s="16"/>
+      <c r="F16" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
@@ -1876,7 +1857,7 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1890,19 +1871,19 @@
         <v>44</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" t="s">
-        <v>158</v>
+      <c r="F20" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1916,16 +1897,16 @@
         <v>11</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" t="s">
-        <v>168</v>
+        <v>157</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1938,14 +1919,17 @@
       <c r="C22">
         <v>12</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="11" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1965,13 +1949,13 @@
         <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1991,10 +1975,10 @@
         <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2014,10 +1998,10 @@
         <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2036,11 +2020,11 @@
       <c r="E26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F26" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" t="s">
-        <v>199</v>
+      <c r="F26" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2059,11 +2043,11 @@
       <c r="E27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F27" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" t="s">
-        <v>199</v>
+      <c r="F27" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2083,10 +2067,7 @@
         <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2105,12 +2086,10 @@
       <c r="E29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" t="s">
-        <v>166</v>
-      </c>
+      <c r="F29" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3">
@@ -2128,12 +2107,10 @@
       <c r="E30" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F30" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" t="s">
-        <v>166</v>
-      </c>
+      <c r="F30" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3">
@@ -2151,14 +2128,12 @@
       <c r="E31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" t="s">
-        <v>200</v>
-      </c>
+      <c r="F31" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="20"/>
       <c r="K31" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2177,12 +2152,10 @@
       <c r="E32" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F32" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" t="s">
-        <v>200</v>
-      </c>
+      <c r="F32" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3">
@@ -2200,12 +2173,10 @@
       <c r="E33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F33" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" t="s">
-        <v>200</v>
-      </c>
+      <c r="F33" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="3">
@@ -2223,12 +2194,10 @@
       <c r="E34" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F34" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" t="s">
-        <v>200</v>
-      </c>
+      <c r="F34" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="3">
@@ -2247,10 +2216,7 @@
         <v>123</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2270,10 +2236,7 @@
         <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G36" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2292,11 +2255,11 @@
       <c r="E37" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>175</v>
+      <c r="F37" t="s">
+        <v>146</v>
       </c>
       <c r="G37" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2315,11 +2278,11 @@
       <c r="E38" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>170</v>
+      <c r="F38" t="s">
+        <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2341,9 +2304,6 @@
       <c r="F39" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G39" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="3">
@@ -2381,11 +2341,11 @@
       <c r="E41" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" t="s">
-        <v>195</v>
+      <c r="F41" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2404,14 +2364,14 @@
       <c r="E42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G42" t="s">
-        <v>204</v>
+      <c r="F42" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>220</v>
       </c>
       <c r="K42" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2430,14 +2390,12 @@
       <c r="E43" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G43" t="s">
-        <v>204</v>
-      </c>
+      <c r="F43" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="20"/>
       <c r="K43" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2456,14 +2414,11 @@
       <c r="E44" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G44" t="s">
-        <v>196</v>
+      <c r="F44" t="s">
+        <v>151</v>
       </c>
       <c r="K44" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2483,10 +2438,10 @@
         <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G45" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" thickBot="1">

--- a/Light Version Pinout for UNO32 & WiFire.xlsx
+++ b/Light Version Pinout for UNO32 & WiFire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="0" windowWidth="32180" windowHeight="18200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
